--- a/biology/Médecine/1926_en_santé_et_médecine/1926_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1926_en_santé_et_médecine/1926_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1926_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1926_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1926 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1926_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1926_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Wilhelm Roehl (de), élève de Paul Ehrlich, introduit la plasmoquine[1],[2], médicament antipaludéen dérivé de la quinoléine, synthétisé par Werner Schulemann (de).
-George Minot et William Murphy démontrent que des extraits de foie sous forme de compléments alimentaires sont susceptibles de corriger certaines anémies, extraits dont il se révélera qu'ils contiennent le facteur extrinsèque, c'est-à-dire la vitamine B12[3].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Wilhelm Roehl (de), élève de Paul Ehrlich, introduit la plasmoquine médicament antipaludéen dérivé de la quinoléine, synthétisé par Werner Schulemann (de).
+George Minot et William Murphy démontrent que des extraits de foie sous forme de compléments alimentaires sont susceptibles de corriger certaines anémies, extraits dont il se révélera qu'ils contiennent le facteur extrinsèque, c'est-à-dire la vitamine B12.</t>
         </is>
       </c>
     </row>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1926_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1926_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>16 mai : Robert Lifton, psychiatre américain.
 9 juin : Emanuel Friedman, gynécologue-obstétricien américain.
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1926_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1926_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +592,9 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">21 janvier : Camillo Golgi (né en 1843), médecin italien, lauréat avec Santiago Ramón y Cajal du prix Nobel de médecine en 1906.
 13 juin : Joseph Teissier (né en 1851), médecin français.
